--- a/Code/Results/Cases/Case_8_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0069808810705</v>
+        <v>1.005459552352377</v>
       </c>
       <c r="D2">
-        <v>1.024469510013725</v>
+        <v>1.022995350858232</v>
       </c>
       <c r="E2">
-        <v>1.012461096131866</v>
+        <v>1.011158461218754</v>
       </c>
       <c r="F2">
-        <v>1.019646398345343</v>
+        <v>1.018987359445569</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044368505922565</v>
+        <v>1.043581912761138</v>
       </c>
       <c r="J2">
-        <v>1.028954781295264</v>
+        <v>1.027478186400459</v>
       </c>
       <c r="K2">
-        <v>1.035598154829894</v>
+        <v>1.03414335643395</v>
       </c>
       <c r="L2">
-        <v>1.023749515477742</v>
+        <v>1.022464499366358</v>
       </c>
       <c r="M2">
-        <v>1.030838648198974</v>
+        <v>1.030188359093432</v>
       </c>
       <c r="N2">
-        <v>1.030416015107467</v>
+        <v>1.025004025350283</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.032979072101353</v>
+        <v>1.032464406241369</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036241229430991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035221357879365</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021154713786291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010496998924615</v>
+        <v>1.008714691586405</v>
       </c>
       <c r="D3">
-        <v>1.026744814321091</v>
+        <v>1.025013827981521</v>
       </c>
       <c r="E3">
-        <v>1.015207654225709</v>
+        <v>1.013676619614268</v>
       </c>
       <c r="F3">
-        <v>1.022571371253351</v>
+        <v>1.021800329532353</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045134011865114</v>
+        <v>1.044205943853741</v>
       </c>
       <c r="J3">
-        <v>1.030705538778821</v>
+        <v>1.028970572039338</v>
       </c>
       <c r="K3">
-        <v>1.037046554945596</v>
+        <v>1.035336351477341</v>
       </c>
       <c r="L3">
-        <v>1.025649578913269</v>
+        <v>1.024137445898215</v>
       </c>
       <c r="M3">
-        <v>1.032923368424548</v>
+        <v>1.032161667383289</v>
       </c>
       <c r="N3">
-        <v>1.032169258867465</v>
+        <v>1.025840782013644</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.034629003900697</v>
+        <v>1.034026163376138</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037262706720651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036061963333884</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021377476217916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012732425024527</v>
+        <v>1.010785873866451</v>
       </c>
       <c r="D4">
-        <v>1.028195266808565</v>
+        <v>1.0263019923566</v>
       </c>
       <c r="E4">
-        <v>1.016959322028915</v>
+        <v>1.015284343706678</v>
       </c>
       <c r="F4">
-        <v>1.0244373848051</v>
+        <v>1.023596021167914</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045612750787823</v>
+        <v>1.04459518510771</v>
       </c>
       <c r="J4">
-        <v>1.03181594803433</v>
+        <v>1.029917642904899</v>
       </c>
       <c r="K4">
-        <v>1.037964904521144</v>
+        <v>1.036093010072953</v>
       </c>
       <c r="L4">
-        <v>1.02685728281395</v>
+        <v>1.025201734694919</v>
       </c>
       <c r="M4">
-        <v>1.03424955404329</v>
+        <v>1.033417765690266</v>
       </c>
       <c r="N4">
-        <v>1.033281245031482</v>
+        <v>1.026371786544572</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.035678598761378</v>
+        <v>1.035020289301158</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037912960375143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036597971330575</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021516342783036</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01366590663181</v>
+        <v>1.011651016923839</v>
       </c>
       <c r="D5">
-        <v>1.028804031705672</v>
+        <v>1.026843170630682</v>
       </c>
       <c r="E5">
-        <v>1.01769245119919</v>
+        <v>1.015957536274929</v>
       </c>
       <c r="F5">
-        <v>1.025216930416216</v>
+        <v>1.024346343751078</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045812209356259</v>
+        <v>1.044757323269207</v>
       </c>
       <c r="J5">
-        <v>1.032280395135089</v>
+        <v>1.030313970224025</v>
       </c>
       <c r="K5">
-        <v>1.038350608952047</v>
+        <v>1.036411309621572</v>
       </c>
       <c r="L5">
-        <v>1.027362565077283</v>
+        <v>1.025647239180066</v>
       </c>
       <c r="M5">
-        <v>1.034803028557552</v>
+        <v>1.033942084907696</v>
       </c>
       <c r="N5">
-        <v>1.033746351700398</v>
+        <v>1.026593999031107</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.036116639550606</v>
+        <v>1.035435255871825</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038192875123286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03683094467266</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021574652559537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013825711645701</v>
+        <v>1.011798980060004</v>
       </c>
       <c r="D6">
-        <v>1.02891094000647</v>
+        <v>1.026938463115344</v>
       </c>
       <c r="E6">
-        <v>1.017818474877777</v>
+        <v>1.01607316966439</v>
       </c>
       <c r="F6">
-        <v>1.025349017761777</v>
+        <v>1.024473367554714</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04584804442698</v>
+        <v>1.044786712252943</v>
       </c>
       <c r="J6">
-        <v>1.032361591646034</v>
+        <v>1.030383361866981</v>
       </c>
       <c r="K6">
-        <v>1.038420049275058</v>
+        <v>1.036469163810248</v>
       </c>
       <c r="L6">
-        <v>1.027450345400286</v>
+        <v>1.025724656197172</v>
       </c>
       <c r="M6">
-        <v>1.034897191348467</v>
+        <v>1.034031195696868</v>
       </c>
       <c r="N6">
-        <v>1.033827663519702</v>
+        <v>1.026632905442035</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.036191163539111</v>
+        <v>1.035505781583398</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038250740993704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036881497146755</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021585803507501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012754631180368</v>
+        <v>1.010824479857878</v>
       </c>
       <c r="D7">
-        <v>1.028216809006698</v>
+        <v>1.026335291255884</v>
       </c>
       <c r="E7">
-        <v>1.016977952136346</v>
+        <v>1.015317917937566</v>
       </c>
       <c r="F7">
-        <v>1.02445201658524</v>
+        <v>1.02361774561106</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045622345303669</v>
+        <v>1.044612825047799</v>
       </c>
       <c r="J7">
-        <v>1.031831631775319</v>
+        <v>1.029949298674433</v>
       </c>
       <c r="K7">
-        <v>1.037983312734615</v>
+        <v>1.036123033736501</v>
       </c>
       <c r="L7">
-        <v>1.026872763094602</v>
+        <v>1.025231978075459</v>
       </c>
       <c r="M7">
-        <v>1.034261113979419</v>
+        <v>1.033436333983608</v>
       </c>
       <c r="N7">
-        <v>1.033296951045182</v>
+        <v>1.026441848168768</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.035687747737432</v>
+        <v>1.035034984973063</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037946137896954</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03664138322848</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021525183221112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008189690023899</v>
+        <v>1.006635424600969</v>
       </c>
       <c r="D8">
-        <v>1.025259643428268</v>
+        <v>1.023739174580543</v>
       </c>
       <c r="E8">
-        <v>1.01340573477609</v>
+        <v>1.012076272230303</v>
       </c>
       <c r="F8">
-        <v>1.020645781096814</v>
+        <v>1.019972786542891</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044639294235025</v>
+        <v>1.043832281969878</v>
       </c>
       <c r="J8">
-        <v>1.029562964964365</v>
+        <v>1.028052882727692</v>
       </c>
       <c r="K8">
-        <v>1.036107991139813</v>
+        <v>1.03460690539633</v>
       </c>
       <c r="L8">
-        <v>1.024407127843389</v>
+        <v>1.02309511017829</v>
       </c>
       <c r="M8">
-        <v>1.03155316974902</v>
+        <v>1.0308888429493</v>
       </c>
       <c r="N8">
-        <v>1.031025062467137</v>
+        <v>1.02548481092413</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.033544573755432</v>
+        <v>1.033018798299907</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03662470101219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035574389508003</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021249133948484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9998134924924124</v>
+        <v>0.9989028612451417</v>
       </c>
       <c r="D9">
-        <v>1.019854746801282</v>
+        <v>1.018960559055039</v>
       </c>
       <c r="E9">
-        <v>1.006894029143845</v>
+        <v>1.006126864852448</v>
       </c>
       <c r="F9">
-        <v>1.013719898268068</v>
+        <v>1.013324318438094</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042766244832619</v>
+        <v>1.042304641699686</v>
       </c>
       <c r="J9">
-        <v>1.025372838539921</v>
+        <v>1.024494421885632</v>
       </c>
       <c r="K9">
-        <v>1.032633703267095</v>
+        <v>1.03175332618742</v>
       </c>
       <c r="L9">
-        <v>1.019876237074641</v>
+        <v>1.019121313952724</v>
       </c>
       <c r="M9">
-        <v>1.026594233540916</v>
+        <v>1.026204854510286</v>
       </c>
       <c r="N9">
-        <v>1.026828985582556</v>
+        <v>1.023508778888104</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.029619858863219</v>
+        <v>1.029311686653426</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.034164950361182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033553239203698</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020702106289912</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9940938571222373</v>
+        <v>0.9937144438443165</v>
       </c>
       <c r="D10">
-        <v>1.016199576092001</v>
+        <v>1.015798244099166</v>
       </c>
       <c r="E10">
-        <v>1.002490540153962</v>
+        <v>1.002188904108294</v>
       </c>
       <c r="F10">
-        <v>1.009266756723918</v>
+        <v>1.009101737370657</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041472263651238</v>
+        <v>1.041289211880422</v>
       </c>
       <c r="J10">
-        <v>1.022543779902116</v>
+        <v>1.022179683187107</v>
       </c>
       <c r="K10">
-        <v>1.03028237515109</v>
+        <v>1.029887997044218</v>
       </c>
       <c r="L10">
-        <v>1.016814972259241</v>
+        <v>1.016518749363978</v>
       </c>
       <c r="M10">
-        <v>1.023470688742454</v>
+        <v>1.023308578967534</v>
       </c>
       <c r="N10">
-        <v>1.023995909356988</v>
+        <v>1.022444316425094</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.027199892200361</v>
+        <v>1.02707159896769</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.03251927758603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032252887706029</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020346363817233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9923062041359626</v>
+        <v>0.9921794775096882</v>
       </c>
       <c r="D11">
-        <v>1.015147088418825</v>
+        <v>1.014957469723439</v>
       </c>
       <c r="E11">
-        <v>1.001209721126887</v>
+        <v>1.001132452840775</v>
       </c>
       <c r="F11">
-        <v>1.009788022265547</v>
+        <v>1.009733310822309</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041246929387141</v>
+        <v>1.041191542491321</v>
       </c>
       <c r="J11">
-        <v>1.022002594114489</v>
+        <v>1.021881257687026</v>
       </c>
       <c r="K11">
-        <v>1.029788896577971</v>
+        <v>1.029602717195758</v>
       </c>
       <c r="L11">
-        <v>1.016108859881674</v>
+        <v>1.016033044313188</v>
       </c>
       <c r="M11">
-        <v>1.02452768171834</v>
+        <v>1.024473976230389</v>
       </c>
       <c r="N11">
-        <v>1.023453955023468</v>
+        <v>1.022722149903485</v>
       </c>
       <c r="O11">
-        <v>1.03</v>
+        <v>1.030000000000001</v>
       </c>
       <c r="P11">
-        <v>1.028477695550414</v>
+        <v>1.028435215120682</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032203334776359</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032087375837775</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020347915619852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9918862647863005</v>
+        <v>0.991817643511237</v>
       </c>
       <c r="D12">
-        <v>1.01493717858868</v>
+        <v>1.014792773360139</v>
       </c>
       <c r="E12">
-        <v>1.000953807979242</v>
+        <v>1.000927504174179</v>
       </c>
       <c r="F12">
-        <v>1.010809012156629</v>
+        <v>1.010779548067664</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041280470422856</v>
+        <v>1.041252676092131</v>
       </c>
       <c r="J12">
-        <v>1.022038026712607</v>
+        <v>1.021972378189606</v>
       </c>
       <c r="K12">
-        <v>1.029783693946078</v>
+        <v>1.029641950690357</v>
       </c>
       <c r="L12">
-        <v>1.016062757319296</v>
+        <v>1.016036956214943</v>
       </c>
       <c r="M12">
-        <v>1.025732017647469</v>
+        <v>1.025703102423824</v>
       </c>
       <c r="N12">
-        <v>1.023489437939939</v>
+        <v>1.022966468973976</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.029759783960491</v>
+        <v>1.029736920240502</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032199656322065</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032115114800864</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020391602908248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9924984225798225</v>
+        <v>0.9923257918483964</v>
       </c>
       <c r="D13">
-        <v>1.015373372160846</v>
+        <v>1.015136764359047</v>
       </c>
       <c r="E13">
-        <v>1.001474645337705</v>
+        <v>1.001354872591767</v>
       </c>
       <c r="F13">
-        <v>1.012308121905346</v>
+        <v>1.012234325531529</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041525625087103</v>
+        <v>1.041442339553512</v>
       </c>
       <c r="J13">
-        <v>1.02252989494455</v>
+        <v>1.022364703356684</v>
       </c>
       <c r="K13">
-        <v>1.0301687870347</v>
+        <v>1.029936521926361</v>
       </c>
       <c r="L13">
-        <v>1.016529708743023</v>
+        <v>1.016412214497631</v>
       </c>
       <c r="M13">
-        <v>1.027160001243326</v>
+        <v>1.027087569756063</v>
       </c>
       <c r="N13">
-        <v>1.02398200468119</v>
+        <v>1.023143627387882</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031167640309655</v>
+        <v>1.031110382183481</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03246943014464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032320638731449</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020472715707738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.993386781400596</v>
+        <v>0.9930725476136159</v>
       </c>
       <c r="D14">
-        <v>1.015967353461496</v>
+        <v>1.015607853943197</v>
       </c>
       <c r="E14">
-        <v>1.002184549043717</v>
+        <v>1.001938410303084</v>
       </c>
       <c r="F14">
-        <v>1.013548488183102</v>
+        <v>1.013414498311436</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04178989921312</v>
+        <v>1.041632790595312</v>
       </c>
       <c r="J14">
-        <v>1.023073340983827</v>
+        <v>1.022772454104981</v>
       </c>
       <c r="K14">
-        <v>1.030610885382925</v>
+        <v>1.030257902717663</v>
       </c>
       <c r="L14">
-        <v>1.017082300172882</v>
+        <v>1.016840784401058</v>
       </c>
       <c r="M14">
-        <v>1.02823598421315</v>
+        <v>1.028104437660551</v>
       </c>
       <c r="N14">
-        <v>1.024526222476177</v>
+        <v>1.023236623416727</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032192559311127</v>
+        <v>1.032088584028712</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032783439664625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032549430822778</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02054673447807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.993838831547552</v>
+        <v>0.9934560246130092</v>
       </c>
       <c r="D15">
-        <v>1.016262971045324</v>
+        <v>1.015844440603277</v>
       </c>
       <c r="E15">
-        <v>1.002536823401897</v>
+        <v>1.002229812551986</v>
       </c>
       <c r="F15">
-        <v>1.014002856736999</v>
+        <v>1.013839714027281</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041906683852109</v>
+        <v>1.041714288122585</v>
       </c>
       <c r="J15">
-        <v>1.023317532311878</v>
+        <v>1.022950843865796</v>
       </c>
       <c r="K15">
-        <v>1.030814311652872</v>
+        <v>1.030403311179411</v>
       </c>
       <c r="L15">
-        <v>1.017339394474888</v>
+        <v>1.017038105532045</v>
       </c>
       <c r="M15">
-        <v>1.028594956102335</v>
+        <v>1.028434764642452</v>
       </c>
       <c r="N15">
-        <v>1.024770760583922</v>
+        <v>1.023256393483446</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.032514024455766</v>
+        <v>1.032387411392908</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03293315990005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032658701845657</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02057646913935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9961248357210954</v>
+        <v>0.9954262120666068</v>
       </c>
       <c r="D16">
-        <v>1.017713911350481</v>
+        <v>1.017023385843977</v>
       </c>
       <c r="E16">
-        <v>1.004280555714665</v>
+        <v>1.003694928330413</v>
       </c>
       <c r="F16">
-        <v>1.015639699416267</v>
+        <v>1.015341891807374</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042413117303326</v>
+        <v>1.042059952060764</v>
       </c>
       <c r="J16">
-        <v>1.024415770357804</v>
+        <v>1.023745109525156</v>
       </c>
       <c r="K16">
-        <v>1.031734774524267</v>
+        <v>1.031056137250431</v>
       </c>
       <c r="L16">
-        <v>1.018536499244157</v>
+        <v>1.017961306020165</v>
       </c>
       <c r="M16">
-        <v>1.02969633559644</v>
+        <v>1.029403679666048</v>
       </c>
       <c r="N16">
-        <v>1.025870558253843</v>
+        <v>1.023296716620715</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.033345623160676</v>
+        <v>1.033114305410928</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033587141933046</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.0331237577657</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020689909794098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.997422007776904</v>
+        <v>0.9965703933097674</v>
       </c>
       <c r="D17">
-        <v>1.018523102766498</v>
+        <v>1.017699031178278</v>
       </c>
       <c r="E17">
-        <v>1.005255221427644</v>
+        <v>1.004535273033268</v>
       </c>
       <c r="F17">
-        <v>1.016251019855276</v>
+        <v>1.015887452334564</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042664465468565</v>
+        <v>1.042233562570088</v>
       </c>
       <c r="J17">
-        <v>1.024979616174286</v>
+        <v>1.024161007221385</v>
       </c>
       <c r="K17">
-        <v>1.032213966886179</v>
+        <v>1.031403689289273</v>
       </c>
       <c r="L17">
-        <v>1.019171730755736</v>
+        <v>1.018464247044182</v>
       </c>
       <c r="M17">
-        <v>1.029979985855281</v>
+        <v>1.029622535609447</v>
       </c>
       <c r="N17">
-        <v>1.026435204796059</v>
+        <v>1.023341714880066</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033440039827068</v>
+        <v>1.033157479734562</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033928548293898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03337234008859</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020741756938677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9979536434116244</v>
+        <v>0.9970568870149554</v>
       </c>
       <c r="D18">
-        <v>1.018822431744857</v>
+        <v>1.017958927226088</v>
       </c>
       <c r="E18">
-        <v>1.005623607887149</v>
+        <v>1.004864499179881</v>
       </c>
       <c r="F18">
-        <v>1.015870830345609</v>
+        <v>1.01548675221146</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042700337765335</v>
+        <v>1.042247107788832</v>
       </c>
       <c r="J18">
-        <v>1.025094183171082</v>
+        <v>1.02423154456467</v>
       </c>
       <c r="K18">
-        <v>1.032323986836587</v>
+        <v>1.031474703012411</v>
       </c>
       <c r="L18">
-        <v>1.019345971473237</v>
+        <v>1.018599790021355</v>
       </c>
       <c r="M18">
-        <v>1.029421122748819</v>
+        <v>1.029043413394986</v>
       </c>
       <c r="N18">
-        <v>1.026549934491132</v>
+        <v>1.0232988021766</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.032758893460769</v>
+        <v>1.032460255831022</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033994664214835</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033409735477687</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020731854227438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9977774459018205</v>
+        <v>0.9969214345333066</v>
       </c>
       <c r="D19">
-        <v>1.018660504658572</v>
+        <v>1.017834785309858</v>
       </c>
       <c r="E19">
-        <v>1.005430924788074</v>
+        <v>1.004708122985106</v>
       </c>
       <c r="F19">
-        <v>1.014492643910753</v>
+        <v>1.014124146553345</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042541648442813</v>
+        <v>1.042110595538014</v>
       </c>
       <c r="J19">
-        <v>1.024789562424797</v>
+        <v>1.023965942332445</v>
       </c>
       <c r="K19">
-        <v>1.032101864832061</v>
+        <v>1.031289676172241</v>
       </c>
       <c r="L19">
-        <v>1.019092523300251</v>
+        <v>1.018381969962233</v>
       </c>
       <c r="M19">
-        <v>1.028002590513087</v>
+        <v>1.027640192073943</v>
       </c>
       <c r="N19">
-        <v>1.026244881148446</v>
+        <v>1.023126663849785</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.031308874030202</v>
+        <v>1.03102224683305</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033844031901308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033285960721982</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020665949515627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.995603063693893</v>
+        <v>0.9950275468765752</v>
       </c>
       <c r="D20">
-        <v>1.017180085601982</v>
+        <v>1.01660771057381</v>
       </c>
       <c r="E20">
-        <v>1.003654035429688</v>
+        <v>1.003178725730772</v>
       </c>
       <c r="F20">
-        <v>1.010441358234027</v>
+        <v>1.010191136290467</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041829365971952</v>
+        <v>1.041545197027993</v>
       </c>
       <c r="J20">
-        <v>1.023304538425068</v>
+        <v>1.022751503135634</v>
       </c>
       <c r="K20">
-        <v>1.030927424160387</v>
+        <v>1.030364686973884</v>
       </c>
       <c r="L20">
-        <v>1.017632935899345</v>
+        <v>1.017165910420477</v>
       </c>
       <c r="M20">
-        <v>1.02430306046465</v>
+        <v>1.02405712302948</v>
       </c>
       <c r="N20">
-        <v>1.024757748244303</v>
+        <v>1.022569130912529</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.027847941505929</v>
+        <v>1.02765330490221</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03301758844165</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032636282345067</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020437181925948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9911657462306906</v>
+        <v>0.9912698674647951</v>
       </c>
       <c r="D21">
-        <v>1.014334523903903</v>
+        <v>1.014344599234871</v>
       </c>
       <c r="E21">
-        <v>1.000232440168453</v>
+        <v>1.000362095233127</v>
       </c>
       <c r="F21">
-        <v>1.00662525262491</v>
+        <v>1.006670633543965</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040774478271844</v>
+        <v>1.040840106965753</v>
       </c>
       <c r="J21">
-        <v>1.021037524426207</v>
+        <v>1.021137181583682</v>
       </c>
       <c r="K21">
-        <v>1.029049319867631</v>
+        <v>1.029059211278681</v>
       </c>
       <c r="L21">
-        <v>1.015209410237549</v>
+        <v>1.015336610855293</v>
       </c>
       <c r="M21">
-        <v>1.021482185347506</v>
+        <v>1.021526721262505</v>
       </c>
       <c r="N21">
-        <v>1.022487514825533</v>
+        <v>1.022476464696338</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.025573941291095</v>
+        <v>1.025609189231099</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031692927744741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031716816996361</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020199557459509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9883570619335962</v>
+        <v>0.9888781649717359</v>
       </c>
       <c r="D22">
-        <v>1.012537065445004</v>
+        <v>1.012907221895506</v>
       </c>
       <c r="E22">
-        <v>0.9980779851761453</v>
+        <v>0.9985793501578133</v>
       </c>
       <c r="F22">
-        <v>1.004342074347019</v>
+        <v>1.00456943705498</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040105430284389</v>
+        <v>1.040387087325312</v>
       </c>
       <c r="J22">
-        <v>1.019616919709343</v>
+        <v>1.02011438878431</v>
       </c>
       <c r="K22">
-        <v>1.027864185795611</v>
+        <v>1.028227248535244</v>
       </c>
       <c r="L22">
-        <v>1.013687613954407</v>
+        <v>1.014179003030606</v>
       </c>
       <c r="M22">
-        <v>1.019828001872486</v>
+        <v>1.020050912762247</v>
       </c>
       <c r="N22">
-        <v>1.021064892687025</v>
+        <v>1.022376492923466</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.024264736856383</v>
+        <v>1.024441159951416</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030841416145588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031113709410795</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020046882604269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9898420991746465</v>
+        <v>0.9901156978422804</v>
       </c>
       <c r="D23">
-        <v>1.013480640276797</v>
+        <v>1.013639648196829</v>
       </c>
       <c r="E23">
-        <v>0.9992150452100109</v>
+        <v>0.999494884468634</v>
       </c>
       <c r="F23">
-        <v>1.005551926438468</v>
+        <v>1.005671232953706</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040455686472469</v>
+        <v>1.040609140017361</v>
       </c>
       <c r="J23">
-        <v>1.020364077556934</v>
+        <v>1.020625628741866</v>
       </c>
       <c r="K23">
-        <v>1.028482951977965</v>
+        <v>1.028638989467731</v>
       </c>
       <c r="L23">
-        <v>1.0144888958046</v>
+        <v>1.014763310763386</v>
       </c>
       <c r="M23">
-        <v>1.020703913218429</v>
+        <v>1.020820944632887</v>
       </c>
       <c r="N23">
-        <v>1.021813111584461</v>
+        <v>1.022342243020184</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.024957977693756</v>
+        <v>1.025050602260465</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031269237097215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031394211221503</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020118138448903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9955890060010993</v>
+        <v>0.9950176189374095</v>
       </c>
       <c r="D24">
-        <v>1.01715380164477</v>
+        <v>1.016585171231781</v>
       </c>
       <c r="E24">
-        <v>1.00363285066739</v>
+        <v>1.003161188714853</v>
       </c>
       <c r="F24">
-        <v>1.010245558444113</v>
+        <v>1.009996942724246</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041801915850664</v>
+        <v>1.041519984556005</v>
       </c>
       <c r="J24">
-        <v>1.023257917243044</v>
+        <v>1.022708819754622</v>
       </c>
       <c r="K24">
-        <v>1.030886228232329</v>
+        <v>1.030327160914807</v>
       </c>
       <c r="L24">
-        <v>1.017596468322833</v>
+        <v>1.017133016834055</v>
       </c>
       <c r="M24">
-        <v>1.024095108233914</v>
+        <v>1.023850746167904</v>
       </c>
       <c r="N24">
-        <v>1.024711060854853</v>
+        <v>1.022537237729079</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.027641935454851</v>
+        <v>1.027448535703888</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032960950296504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032579552310107</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020423357131946</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002033823070454</v>
+        <v>1.000926644501107</v>
       </c>
       <c r="D25">
-        <v>1.021294344355009</v>
+        <v>1.020215554513272</v>
       </c>
       <c r="E25">
-        <v>1.008616751353452</v>
+        <v>1.007677259942261</v>
       </c>
       <c r="F25">
-        <v>1.015543464538542</v>
+        <v>1.015062912565318</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043277213362609</v>
+        <v>1.042711670110092</v>
       </c>
       <c r="J25">
-        <v>1.026492934282163</v>
+        <v>1.025422863554603</v>
       </c>
       <c r="K25">
-        <v>1.033570847856752</v>
+        <v>1.032507950906769</v>
       </c>
       <c r="L25">
-        <v>1.021082759951782</v>
+        <v>1.020157554003073</v>
       </c>
       <c r="M25">
-        <v>1.027905186592553</v>
+        <v>1.027431811216001</v>
       </c>
       <c r="N25">
-        <v>1.027950671989229</v>
+        <v>1.023963157937095</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.030657405507852</v>
+        <v>1.03028275532612</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034856255207776</v>
+        <v>1.034118315486543</v>
+      </c>
+      <c r="S25">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T25">
+        <v>1.020849179545319</v>
       </c>
     </row>
   </sheetData>
